--- a/ResultadoEleicoesDistritos/FARO_CASTRO MARIM.xlsx
+++ b/ResultadoEleicoesDistritos/FARO_CASTRO MARIM.xlsx
@@ -597,64 +597,64 @@
         <v>1730</v>
       </c>
       <c r="H2" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="J2" t="n">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>183</v>
       </c>
       <c r="M2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>3</v>
       </c>
-      <c r="R2" t="n">
-        <v>11</v>
-      </c>
       <c r="S2" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="T2" t="n">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="U2" t="n">
         <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>1103</v>
+        <v>1135</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1094</v>
+        <v>1106</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
